--- a/docs/oncocore-GeneticMarkerAnalysisResult.xlsx
+++ b/docs/oncocore-GeneticMarkerAnalysisResult.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="408">
   <si>
     <t>Path</t>
   </si>
@@ -484,16 +484,6 @@
   </si>
   <si>
     <t>A DNA Marker identifier conveys a universal or standard repository identifier for definitive characterstics of a DNA Marker. (recommend using NCBI dbSNP ids - rs#) (source: LOINC)</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Recorder-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The recorder of the information, if other than the information originator. For example, the nurse taking a list of medications reported by the patient.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -622,7 +612,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -650,7 +640,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-encounter-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -728,7 +718,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Practitioner], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Organization], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -956,7 +946,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Specimen]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Specimen]]}
 </t>
   </si>
   <si>
@@ -978,7 +968,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1192,7 +1182,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1448,7 +1438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1457,44 +1447,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.46484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.7109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="42.92578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.6015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="124.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3839,38 +3829,40 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s" s="2">
         <v>149</v>
       </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3919,7 +3911,7 @@
         <v>42</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3937,7 +3929,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3949,7 +3941,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3962,24 +3954,24 @@
         <v>42</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4042,18 +4034,18 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4061,32 +4053,32 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4111,13 +4103,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>42</v>
@@ -4135,13 +4125,13 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
@@ -4150,18 +4140,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4178,24 +4168,24 @@
         <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4204,7 +4194,7 @@
         <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>42</v>
@@ -4219,11 +4209,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -4241,10 +4233,10 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>51</v>
@@ -4256,22 +4248,22 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4290,18 +4282,20 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4310,7 +4304,7 @@
         <v>42</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>42</v>
@@ -4325,34 +4319,32 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AF27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>51</v>
@@ -4364,22 +4356,22 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4398,19 +4390,19 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4435,11 +4427,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4457,10 +4451,10 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>51</v>
@@ -4472,18 +4466,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4491,13 +4485,13 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>42</v>
@@ -4506,19 +4500,17 @@
         <v>42</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4567,7 +4559,7 @@
         <v>42</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4582,18 +4574,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4607,7 +4599,7 @@
         <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>42</v>
@@ -4616,17 +4608,19 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N30" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4675,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4687,21 +4681,21 @@
         <v>42</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4715,29 +4709,27 @@
         <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4785,7 +4777,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4797,21 +4789,21 @@
         <v>42</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4822,7 +4814,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4834,18 +4826,18 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4893,13 +4885,13 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>42</v>
@@ -4908,18 +4900,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4930,29 +4922,31 @@
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N33" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -5001,33 +4995,33 @@
         <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5038,7 +5032,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>52</v>
@@ -5050,19 +5044,19 @@
         <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5087,13 +5081,11 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5111,7 +5103,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5120,28 +5112,28 @@
         <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5151,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>42</v>
@@ -5160,19 +5152,17 @@
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5199,27 +5189,29 @@
       <c r="W35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="X35" s="2"/>
+      <c r="X35" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="Y35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5228,16 +5220,16 @@
         <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5245,11 +5237,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5268,17 +5260,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5303,31 +5295,31 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5342,10 +5334,10 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5353,7 +5345,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5364,7 +5356,7 @@
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5376,17 +5368,19 @@
         <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5411,13 +5405,11 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5435,7 +5427,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5450,10 +5442,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5461,7 +5453,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5472,7 +5464,7 @@
         <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>42</v>
@@ -5484,20 +5476,16 @@
         <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5518,14 +5506,16 @@
         <v>42</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5542,15 +5532,11 @@
       <c r="AD38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5558,10 +5544,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5569,18 +5555,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5592,15 +5578,17 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5671,11 +5659,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5691,21 +5679,23 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5764,10 +5754,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5775,7 +5765,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5786,7 +5776,7 @@
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5798,19 +5788,19 @@
         <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5870,10 +5860,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5881,7 +5871,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5901,22 +5891,22 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5938,16 +5928,14 @@
         <v>42</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
@@ -5964,11 +5952,15 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5976,10 +5968,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5987,7 +5979,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6010,20 +6002,18 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6047,29 +6037,31 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6084,10 +6076,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6095,7 +6087,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6118,16 +6110,16 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6177,7 +6169,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6192,10 +6184,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6203,7 +6195,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6214,7 +6206,7 @@
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6226,18 +6218,20 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6285,25 +6279,25 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6311,7 +6305,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6322,7 +6316,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6334,20 +6328,16 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>62</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6395,25 +6385,25 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>318</v>
+        <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6421,18 +6411,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6444,15 +6434,17 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
@@ -6501,13 +6493,13 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>42</v>
@@ -6527,11 +6519,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6544,7 +6536,7 @@
         <v>42</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>42</v>
@@ -6553,10 +6545,10 @@
         <v>67</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>70</v>
@@ -6609,7 +6601,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6627,7 +6619,7 @@
         <v>42</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6639,36 +6631,34 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6723,19 +6713,19 @@
         <v>40</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6743,7 +6733,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6766,13 +6756,13 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6823,7 +6813,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6832,16 +6822,16 @@
         <v>51</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6849,7 +6839,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6872,16 +6862,20 @@
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6905,13 +6899,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>42</v>
@@ -6929,7 +6923,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6938,16 +6932,16 @@
         <v>51</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6955,7 +6949,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6978,19 +6972,17 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7015,31 +7007,31 @@
         <v>40</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7054,10 +7046,10 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -7065,7 +7057,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7088,18 +7080,16 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7147,7 +7137,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7162,10 +7152,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7173,7 +7163,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7184,7 +7174,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
@@ -7193,19 +7183,23 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7253,13 +7247,13 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>42</v>
@@ -7268,10 +7262,10 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7279,7 +7273,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7290,7 +7284,7 @@
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
@@ -7299,23 +7293,19 @@
         <v>42</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>356</v>
+        <v>62</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7363,13 +7353,13 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>42</v>
@@ -7378,10 +7368,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>64</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7389,18 +7379,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7412,15 +7402,17 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7469,13 +7461,13 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>42</v>
@@ -7495,11 +7487,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7512,7 +7504,7 @@
         <v>42</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>42</v>
@@ -7521,10 +7513,10 @@
         <v>67</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>70</v>
@@ -7577,7 +7569,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7595,7 +7587,7 @@
         <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7603,47 +7595,49 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>153</v>
+        <v>363</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>42</v>
+        <v>367</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>42</v>
@@ -7661,13 +7655,13 @@
         <v>40</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>42</v>
+        <v>368</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7685,13 +7679,13 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
@@ -7700,10 +7694,10 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7711,7 +7705,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7719,7 +7713,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>51</v>
@@ -7734,26 +7728,22 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>104</v>
+        <v>372</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>370</v>
+        <v>42</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>42</v>
@@ -7771,34 +7761,34 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="AF59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>51</v>
@@ -7810,10 +7800,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7821,7 +7811,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7829,7 +7819,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>51</v>
@@ -7841,19 +7831,23 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7901,13 +7895,13 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>42</v>
@@ -7916,10 +7910,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7927,7 +7921,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7947,23 +7941,19 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>380</v>
+        <v>62</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8011,13 +8001,13 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -8026,10 +8016,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>383</v>
+        <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>384</v>
+        <v>64</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8037,18 +8027,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8060,15 +8050,17 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -8117,13 +8109,13 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
@@ -8143,11 +8135,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8160,7 +8152,7 @@
         <v>42</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>42</v>
@@ -8169,10 +8161,10 @@
         <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>70</v>
@@ -8225,7 +8217,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8243,7 +8235,7 @@
         <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8251,41 +8243,41 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I64" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>153</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8309,13 +8301,13 @@
         <v>40</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>42</v>
+        <v>388</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8333,33 +8325,33 @@
         <v>42</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>42</v>
+        <v>390</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8367,7 +8359,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>51</v>
@@ -8382,17 +8374,19 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8417,57 +8411,57 @@
         <v>40</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE65" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AF65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>51</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>393</v>
+        <v>42</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>189</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8487,22 +8481,22 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>397</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8527,13 +8521,11 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8551,7 +8543,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8560,16 +8552,16 @@
         <v>51</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8588,7 +8580,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8600,19 +8592,19 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>171</v>
+        <v>310</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>313</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8634,14 +8626,16 @@
         <v>42</v>
       </c>
       <c r="V67" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y67" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>42</v>
@@ -8665,19 +8659,19 @@
         <v>40</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8685,7 +8679,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8696,7 +8690,7 @@
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8708,20 +8702,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>313</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>402</v>
+        <v>62</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8768,15 +8758,11 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="AE68" s="2"/>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8784,10 +8770,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8795,18 +8781,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8818,15 +8804,17 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8897,11 +8885,11 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -8914,7 +8902,7 @@
         <v>42</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>42</v>
@@ -8923,10 +8911,10 @@
         <v>67</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>70</v>
@@ -8993,7 +8981,7 @@
         <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -9001,40 +8989,38 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>67</v>
+        <v>324</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9088,16 +9074,16 @@
       </c>
       <c r="AG71" s="2"/>
       <c r="AH71" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>125</v>
+        <v>329</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9105,7 +9091,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9128,13 +9114,13 @@
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9190,16 +9176,16 @@
       </c>
       <c r="AG72" s="2"/>
       <c r="AH72" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9207,7 +9193,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9230,16 +9216,20 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>327</v>
+        <v>168</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>42</v>
       </c>
@@ -9263,13 +9253,13 @@
         <v>42</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>42</v>
+        <v>340</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>42</v>
@@ -9292,16 +9282,16 @@
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9309,7 +9299,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9332,19 +9322,17 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>42</v>
@@ -9369,13 +9357,13 @@
         <v>42</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>342</v>
+        <v>42</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>42</v>
@@ -9404,10 +9392,10 @@
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>257</v>
+        <v>347</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9415,7 +9403,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9438,18 +9426,16 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9508,119 +9494,17 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL76" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL76">
+  <autoFilter ref="A1:AL75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9630,7 +9514,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
